--- a/output/StructureDefinition-walking-speed-observation.xlsx
+++ b/output/StructureDefinition-walking-speed-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-27T22:28:35+00:00</t>
+    <t>2025-01-02T17:46:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-walking-speed-observation.xlsx
+++ b/output/StructureDefinition-walking-speed-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T17:46:41+00:00</t>
+    <t>2025-01-02T19:32:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-walking-speed-observation.xlsx
+++ b/output/StructureDefinition-walking-speed-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T19:32:36+00:00</t>
+    <t>2025-01-03T09:54:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-walking-speed-observation.xlsx
+++ b/output/StructureDefinition-walking-speed-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-03T09:54:59+00:00</t>
+    <t>2025-01-04T21:28:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-walking-speed-observation.xlsx
+++ b/output/StructureDefinition-walking-speed-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-04T21:28:42+00:00</t>
+    <t>2025-01-04T22:09:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-walking-speed-observation.xlsx
+++ b/output/StructureDefinition-walking-speed-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-04T22:09:55+00:00</t>
+    <t>2025-01-04T22:27:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-walking-speed-observation.xlsx
+++ b/output/StructureDefinition-walking-speed-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-04T22:27:27+00:00</t>
+    <t>2025-01-04T22:47:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-walking-speed-observation.xlsx
+++ b/output/StructureDefinition-walking-speed-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-04T22:47:01+00:00</t>
+    <t>2025-01-14T13:24:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-walking-speed-observation.xlsx
+++ b/output/StructureDefinition-walking-speed-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-14T13:24:18+00:00</t>
+    <t>2025-01-24T12:30:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-walking-speed-observation.xlsx
+++ b/output/StructureDefinition-walking-speed-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-01T16:36:18+01:00</t>
+    <t>2025-10-01T23:24:47+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1645,8 +1645,8 @@
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
     &lt;system value="http://loinc.org"/&gt;
-    &lt;code value="LA29042-4"/&gt;
-    &lt;display value="Walking speed measurement"/&gt;
+    &lt;code value="8686-8"/&gt;
+    &lt;display value="Walking speed"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -1855,8 +1855,8 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="https://2rdoc.pt/ig/ios-lifestyle-medicine/CodeSystem/lifestyle-observation-cs"/&gt;
-    &lt;code value="movement-assessment"/&gt;
+    &lt;system value="http://loinc.org"/&gt;
+    &lt;code value="41950-7"/&gt;
     &lt;display value="Walking distance"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>

--- a/output/StructureDefinition-walking-speed-observation.xlsx
+++ b/output/StructureDefinition-walking-speed-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-01T23:24:47+01:00</t>
+    <t>2025-10-02T07:31:55+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-walking-speed-observation.xlsx
+++ b/output/StructureDefinition-walking-speed-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T07:31:55+01:00</t>
+    <t>2025-10-02T11:12:29+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1644,9 +1644,9 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://loinc.org"/&gt;
-    &lt;code value="8686-8"/&gt;
-    &lt;display value="Walking speed"/&gt;
+    &lt;system value="https://2rdoc.pt/ig/ios-lifestyle-medicine/CodeSystem/lifestyle-observation-cs"/&gt;
+    &lt;code value="walking-speed"/&gt;
+    &lt;display value="Walking speed measurement"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -1855,9 +1855,9 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://loinc.org"/&gt;
-    &lt;code value="41950-7"/&gt;
-    &lt;display value="Walking distance"/&gt;
+    &lt;system value="https://2rdoc.pt/ig/ios-lifestyle-medicine/CodeSystem/lifestyle-observation-cs"/&gt;
+    &lt;code value="walking-distance"/&gt;
+    &lt;display value="Walking distance measurement"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>

--- a/output/StructureDefinition-walking-speed-observation.xlsx
+++ b/output/StructureDefinition-walking-speed-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T11:12:29+01:00</t>
+    <t>2025-10-02T18:31:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3878,7 +3878,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
         <v>182</v>
       </c>
@@ -4000,7 +4000,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
         <v>195</v>
       </c>
@@ -4122,7 +4122,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
         <v>206</v>
       </c>
@@ -4244,7 +4244,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
         <v>222</v>
       </c>
@@ -4728,7 +4728,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
         <v>262</v>
       </c>
@@ -5942,7 +5942,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
         <v>350</v>
       </c>
@@ -8592,7 +8592,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
         <v>461</v>
       </c>
@@ -9686,7 +9686,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
         <v>472</v>
       </c>
@@ -10780,7 +10780,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="71" hidden="true">
+    <row r="71">
       <c r="A71" t="s" s="2">
         <v>483</v>
       </c>
@@ -11874,7 +11874,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="80" hidden="true">
+    <row r="80">
       <c r="A80" t="s" s="2">
         <v>494</v>
       </c>
@@ -12968,7 +12968,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" hidden="true">
+    <row r="89">
       <c r="A89" t="s" s="2">
         <v>505</v>
       </c>
@@ -15028,7 +15028,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="106" hidden="true">
+    <row r="106">
       <c r="A106" t="s" s="2">
         <v>572</v>
       </c>
@@ -17090,12 +17090,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AP122">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/output/StructureDefinition-walking-speed-observation.xlsx
+++ b/output/StructureDefinition-walking-speed-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T18:31:12+01:00</t>
+    <t>2025-10-03T16:37:46+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-walking-speed-observation.xlsx
+++ b/output/StructureDefinition-walking-speed-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-03T16:37:46+01:00</t>
+    <t>2025-11-27T11:57:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-walking-speed-observation.xlsx
+++ b/output/StructureDefinition-walking-speed-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T11:57:11+00:00</t>
+    <t>2025-11-27T15:44:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-walking-speed-observation.xlsx
+++ b/output/StructureDefinition-walking-speed-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T17:03:01+00:00</t>
+    <t>2025-11-28T14:35:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-walking-speed-observation.xlsx
+++ b/output/StructureDefinition-walking-speed-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-28T14:35:57+00:00</t>
+    <t>2025-11-30T13:08:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
